--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{EF844DC4-561F-4AFE-8EC2-9BD4E2817F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA89BC2-E01F-4916-A777-43B0D56DA60E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{EF844DC4-561F-4AFE-8EC2-9BD4E2817F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3660187-6CE2-412B-BA4C-92BB5799C95A}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -341,7 +341,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -380,10 +380,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -400,10 +401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,9 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,7 +794,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
@@ -837,7 +832,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F3" t="s">
@@ -875,7 +870,7 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
@@ -913,7 +908,7 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F5" t="s">
@@ -951,7 +946,7 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F6" t="s">
@@ -989,7 +984,7 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F7" t="s">
@@ -1027,7 +1022,7 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F8" t="s">
@@ -1065,7 +1060,7 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F9" t="s">
@@ -1103,7 +1098,7 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F10" t="s">
@@ -1141,7 +1136,7 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F11" t="s">
@@ -1179,7 +1174,7 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F12" t="s">
@@ -1217,7 +1212,7 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
@@ -1255,7 +1250,7 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F14" t="s">
@@ -1293,7 +1288,7 @@
       <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F15" t="s">
@@ -1334,7 +1329,7 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F16" t="s">
@@ -1375,7 +1370,7 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F17" t="s">
@@ -1416,7 +1411,7 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F18" t="s">
@@ -1457,7 +1452,7 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F19" t="s">
@@ -1498,7 +1493,7 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F20" t="s">
@@ -1539,7 +1534,7 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F21" t="s">
@@ -1580,7 +1575,7 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F22" t="s">
@@ -1621,7 +1616,7 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F23" t="s">

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{EF844DC4-561F-4AFE-8EC2-9BD4E2817F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3660187-6CE2-412B-BA4C-92BB5799C95A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1754C508-F704-4F6F-9A26-76A831EB9AB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
+    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -284,55 +284,55 @@
     <t>COORDENADA(DEC)</t>
   </si>
   <si>
-    <t>-3.891234,-38.455678</t>
-  </si>
-  <si>
-    <t>-3.789012,-38.512345</t>
-  </si>
-  <si>
-    <t>-3.715678,-38.567890</t>
-  </si>
-  <si>
-    <t>-3.812345,-38.543210</t>
-  </si>
-  <si>
-    <t>-3.732456,-38.489123</t>
-  </si>
-  <si>
-    <t>-3.824532,-38.579120</t>
-  </si>
-  <si>
-    <t>-3.793874,-38.481262</t>
-  </si>
-  <si>
-    <t>-3.816781,-38.551234</t>
-  </si>
-  <si>
-    <t>-3.727890,-38.639012</t>
-  </si>
-  <si>
-    <t>-3.718389,-38.482273</t>
-  </si>
-  <si>
-    <t>-3.830000,-38.550000</t>
-  </si>
-  <si>
-    <t>-3.714701,-38.581138</t>
-  </si>
-  <si>
-    <t>-3.837602,-38.460851</t>
-  </si>
-  <si>
-    <t>-3.812563,-38.537415</t>
-  </si>
-  <si>
-    <t>-3.732028,-38.462216</t>
-  </si>
-  <si>
-    <t>-3.892758,-38.455388</t>
-  </si>
-  <si>
-    <t>-3.873219,-38.635111</t>
+    <t>-3.891234, -38.455678</t>
+  </si>
+  <si>
+    <t>-3.789012, -38.512345</t>
+  </si>
+  <si>
+    <t>-3.715678, -38.567890</t>
+  </si>
+  <si>
+    <t>-3.812345, -38.543210</t>
+  </si>
+  <si>
+    <t>-3.732456, -38.489123</t>
+  </si>
+  <si>
+    <t>-3.824532, -38.579120</t>
+  </si>
+  <si>
+    <t>-3.793874, -38.481262</t>
+  </si>
+  <si>
+    <t>-3.816781, -38.551234</t>
+  </si>
+  <si>
+    <t>-3.727890, -38.639012</t>
+  </si>
+  <si>
+    <t>-3.718389, -38.482273</t>
+  </si>
+  <si>
+    <t>-3.830000, -38.550000</t>
+  </si>
+  <si>
+    <t>-3.714701, -38.581138</t>
+  </si>
+  <si>
+    <t>-3.837602, -38.460851</t>
+  </si>
+  <si>
+    <t>-3.812563, -38.537415</t>
+  </si>
+  <si>
+    <t>-3.732028, -38.462216</t>
+  </si>
+  <si>
+    <t>-3.892758, -38.455388</t>
+  </si>
+  <si>
+    <t>-3.873219, -38.635111</t>
   </si>
 </sst>
 </file>
@@ -380,11 +380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -722,7 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -794,7 +795,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
       <c r="F2" t="s">
@@ -832,7 +833,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
       <c r="F3" t="s">
@@ -870,7 +871,7 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>83</v>
       </c>
       <c r="F4" t="s">
@@ -908,7 +909,7 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>84</v>
       </c>
       <c r="F5" t="s">
@@ -946,7 +947,7 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>84</v>
       </c>
       <c r="F6" t="s">
@@ -984,7 +985,7 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>85</v>
       </c>
       <c r="F7" t="s">
@@ -1022,7 +1023,7 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>84</v>
       </c>
       <c r="F8" t="s">
@@ -1060,7 +1061,7 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>85</v>
       </c>
       <c r="F9" t="s">
@@ -1098,7 +1099,7 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>84</v>
       </c>
       <c r="F10" t="s">
@@ -1136,7 +1137,7 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>86</v>
       </c>
       <c r="F11" t="s">
@@ -1174,7 +1175,7 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>87</v>
       </c>
       <c r="F12" t="s">
@@ -1212,7 +1213,7 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>88</v>
       </c>
       <c r="F13" t="s">
@@ -1250,7 +1251,7 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>89</v>
       </c>
       <c r="F14" t="s">
@@ -1288,7 +1289,7 @@
       <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>90</v>
       </c>
       <c r="F15" t="s">
@@ -1329,7 +1330,7 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>91</v>
       </c>
       <c r="F16" t="s">
@@ -1370,7 +1371,7 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
       <c r="F17" t="s">
@@ -1411,7 +1412,7 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>93</v>
       </c>
       <c r="F18" t="s">
@@ -1452,7 +1453,7 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>94</v>
       </c>
       <c r="F19" t="s">
@@ -1493,7 +1494,7 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>95</v>
       </c>
       <c r="F20" t="s">
@@ -1534,7 +1535,7 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>96</v>
       </c>
       <c r="F21" t="s">
@@ -1575,7 +1576,7 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>97</v>
       </c>
       <c r="F22" t="s">
@@ -1616,7 +1617,7 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>89</v>
       </c>
       <c r="F23" t="s">

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1754C508-F704-4F6F-9A26-76A831EB9AB0}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F256091-2694-4DDB-9EA9-F6B8EA16C3F5}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -284,55 +284,55 @@
     <t>COORDENADA(DEC)</t>
   </si>
   <si>
-    <t>-3.891234, -38.455678</t>
-  </si>
-  <si>
-    <t>-3.789012, -38.512345</t>
-  </si>
-  <si>
-    <t>-3.715678, -38.567890</t>
-  </si>
-  <si>
-    <t>-3.812345, -38.543210</t>
-  </si>
-  <si>
-    <t>-3.732456, -38.489123</t>
-  </si>
-  <si>
-    <t>-3.824532, -38.579120</t>
-  </si>
-  <si>
-    <t>-3.793874, -38.481262</t>
-  </si>
-  <si>
-    <t>-3.816781, -38.551234</t>
-  </si>
-  <si>
-    <t>-3.727890, -38.639012</t>
-  </si>
-  <si>
-    <t>-3.718389, -38.482273</t>
-  </si>
-  <si>
-    <t>-3.830000, -38.550000</t>
-  </si>
-  <si>
-    <t>-3.714701, -38.581138</t>
-  </si>
-  <si>
-    <t>-3.837602, -38.460851</t>
-  </si>
-  <si>
-    <t>-3.812563, -38.537415</t>
-  </si>
-  <si>
-    <t>-3.732028, -38.462216</t>
-  </si>
-  <si>
-    <t>-3.892758, -38.455388</t>
-  </si>
-  <si>
-    <t>-3.873219, -38.635111</t>
+    <t>-38.455678,-3.891234,0</t>
+  </si>
+  <si>
+    <t>-38.512345,-3.789012,0</t>
+  </si>
+  <si>
+    <t>-38.567890,-3.715678,0</t>
+  </si>
+  <si>
+    <t>-38.543210,-3.812345,0</t>
+  </si>
+  <si>
+    <t>-38.489123,-3.732456,0</t>
+  </si>
+  <si>
+    <t>-38.579120,-3.824532,0</t>
+  </si>
+  <si>
+    <t>-38.481262,-3.793874,0</t>
+  </si>
+  <si>
+    <t>-38.551234,-3.816781,0</t>
+  </si>
+  <si>
+    <t>-38.639012,-3.727890,0</t>
+  </si>
+  <si>
+    <t>-38.482273,-3.718389,0</t>
+  </si>
+  <si>
+    <t>-38.550000,-3.830000,0</t>
+  </si>
+  <si>
+    <t>-38.581138,-3.714701,0</t>
+  </si>
+  <si>
+    <t>-38.460851,-3.837602,0</t>
+  </si>
+  <si>
+    <t>-38.537415,-3.812563,0</t>
+  </si>
+  <si>
+    <t>-38.462216,-3.732028,0</t>
+  </si>
+  <si>
+    <t>-38.455388,-3.892758,0</t>
+  </si>
+  <si>
+    <t>-38.635111,-3.873219,0</t>
   </si>
 </sst>
 </file>
@@ -400,6 +400,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,9 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -739,6 +741,7 @@
     <col min="11" max="11" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F256091-2694-4DDB-9EA9-F6B8EA16C3F5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -281,58 +281,115 @@
     <t>Rua Coronel José Aurélio Câmara, 1341</t>
   </si>
   <si>
-    <t>COORDENADA(DEC)</t>
-  </si>
-  <si>
-    <t>-38.455678,-3.891234,0</t>
-  </si>
-  <si>
-    <t>-38.512345,-3.789012,0</t>
-  </si>
-  <si>
-    <t>-38.567890,-3.715678,0</t>
-  </si>
-  <si>
-    <t>-38.543210,-3.812345,0</t>
-  </si>
-  <si>
-    <t>-38.489123,-3.732456,0</t>
-  </si>
-  <si>
-    <t>-38.579120,-3.824532,0</t>
-  </si>
-  <si>
-    <t>-38.481262,-3.793874,0</t>
-  </si>
-  <si>
-    <t>-38.551234,-3.816781,0</t>
-  </si>
-  <si>
-    <t>-38.639012,-3.727890,0</t>
-  </si>
-  <si>
-    <t>-38.482273,-3.718389,0</t>
-  </si>
-  <si>
-    <t>-38.550000,-3.830000,0</t>
-  </si>
-  <si>
-    <t>-38.581138,-3.714701,0</t>
-  </si>
-  <si>
-    <t>-38.460851,-3.837602,0</t>
-  </si>
-  <si>
-    <t>-38.537415,-3.812563,0</t>
-  </si>
-  <si>
-    <t>-38.462216,-3.732028,0</t>
-  </si>
-  <si>
-    <t>-38.455388,-3.892758,0</t>
-  </si>
-  <si>
-    <t>-38.635111,-3.873219,0</t>
+    <t>VER NO MAPA</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>-3.891234</t>
+  </si>
+  <si>
+    <t>-38.455678</t>
+  </si>
+  <si>
+    <t>-3.789012</t>
+  </si>
+  <si>
+    <t>-38.512345</t>
+  </si>
+  <si>
+    <t>-3.715678</t>
+  </si>
+  <si>
+    <t>-38.567890</t>
+  </si>
+  <si>
+    <t>-3.812345</t>
+  </si>
+  <si>
+    <t>-38.543210</t>
+  </si>
+  <si>
+    <t>-3.732456</t>
+  </si>
+  <si>
+    <t>-38.489123</t>
+  </si>
+  <si>
+    <t>-3.824532</t>
+  </si>
+  <si>
+    <t>-38.579120</t>
+  </si>
+  <si>
+    <t>-3.793874</t>
+  </si>
+  <si>
+    <t>-38.481262</t>
+  </si>
+  <si>
+    <t>-3.816781</t>
+  </si>
+  <si>
+    <t>-38.551234</t>
+  </si>
+  <si>
+    <t>-3.727890</t>
+  </si>
+  <si>
+    <t>-38.639012</t>
+  </si>
+  <si>
+    <t>-3.718389</t>
+  </si>
+  <si>
+    <t>-38.482273</t>
+  </si>
+  <si>
+    <t>-3.830000</t>
+  </si>
+  <si>
+    <t>-38.550000</t>
+  </si>
+  <si>
+    <t>-3.714701</t>
+  </si>
+  <si>
+    <t>-38.581138</t>
+  </si>
+  <si>
+    <t>-3.837602</t>
+  </si>
+  <si>
+    <t>-38.460851</t>
+  </si>
+  <si>
+    <t>-3.812563</t>
+  </si>
+  <si>
+    <t>-38.537415</t>
+  </si>
+  <si>
+    <t>-3.732028</t>
+  </si>
+  <si>
+    <t>-38.462216</t>
+  </si>
+  <si>
+    <t>-3.892758</t>
+  </si>
+  <si>
+    <t>-38.455388</t>
+  </si>
+  <si>
+    <t>-3.873219</t>
+  </si>
+  <si>
+    <t>-38.635111</t>
   </si>
 </sst>
 </file>
@@ -723,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,18 +790,19 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -784,8 +842,14 @@
       <c r="M1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -798,9 +862,6 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
@@ -822,8 +883,14 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -836,9 +903,6 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -860,8 +924,14 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -874,9 +944,6 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -898,8 +965,14 @@
       <c r="M4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -912,9 +985,6 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -936,8 +1006,14 @@
       <c r="M5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -950,9 +1026,6 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
@@ -974,8 +1047,14 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -988,9 +1067,6 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
@@ -1012,8 +1088,14 @@
       <c r="M7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1026,9 +1108,6 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1129,14 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1064,9 +1149,6 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -1088,8 +1170,14 @@
       <c r="M9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1102,9 +1190,6 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
@@ -1126,8 +1211,14 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1140,9 +1231,6 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -1164,8 +1252,14 @@
       <c r="M11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1178,9 +1272,6 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -1202,8 +1293,14 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1216,9 +1313,6 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
@@ -1240,8 +1334,14 @@
       <c r="M13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1254,9 +1354,6 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1375,14 @@
       <c r="M14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1292,9 +1395,6 @@
       <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
       <c r="F15" t="s">
         <v>58</v>
       </c>
@@ -1319,8 +1419,14 @@
       <c r="M15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1333,9 +1439,6 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
       <c r="F16" t="s">
         <v>58</v>
       </c>
@@ -1360,8 +1463,14 @@
       <c r="M16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1374,9 +1483,6 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -1401,8 +1507,14 @@
       <c r="M17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1527,6 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
       <c r="F18" t="s">
         <v>58</v>
       </c>
@@ -1442,8 +1551,14 @@
       <c r="M18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1456,9 +1571,6 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
       <c r="F19" t="s">
         <v>58</v>
       </c>
@@ -1483,8 +1595,14 @@
       <c r="M19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1497,9 +1615,6 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
       <c r="F20" t="s">
         <v>58</v>
       </c>
@@ -1524,8 +1639,14 @@
       <c r="M20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1538,9 +1659,6 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
       <c r="F21" t="s">
         <v>66</v>
       </c>
@@ -1565,8 +1683,14 @@
       <c r="M21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1579,9 +1703,6 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
       <c r="F22" t="s">
         <v>66</v>
       </c>
@@ -1606,8 +1727,14 @@
       <c r="M22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1620,9 +1747,6 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
       <c r="F23" t="s">
         <v>66</v>
       </c>
@@ -1647,9 +1771,15 @@
       <c r="M23" t="s">
         <v>22</v>
       </c>
+      <c r="N23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M23" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
+  <autoFilter ref="A1:O1" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{EF844DC4-561F-4AFE-8EC2-9BD4E2817F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA89BC2-E01F-4916-A777-43B0D56DA60E}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -281,115 +281,58 @@
     <t>Rua Coronel José Aurélio Câmara, 1341</t>
   </si>
   <si>
-    <t>VER NO MAPA</t>
-  </si>
-  <si>
-    <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>-3.891234</t>
-  </si>
-  <si>
-    <t>-38.455678</t>
-  </si>
-  <si>
-    <t>-3.789012</t>
-  </si>
-  <si>
-    <t>-38.512345</t>
-  </si>
-  <si>
-    <t>-3.715678</t>
-  </si>
-  <si>
-    <t>-38.567890</t>
-  </si>
-  <si>
-    <t>-3.812345</t>
-  </si>
-  <si>
-    <t>-38.543210</t>
-  </si>
-  <si>
-    <t>-3.732456</t>
-  </si>
-  <si>
-    <t>-38.489123</t>
-  </si>
-  <si>
-    <t>-3.824532</t>
-  </si>
-  <si>
-    <t>-38.579120</t>
-  </si>
-  <si>
-    <t>-3.793874</t>
-  </si>
-  <si>
-    <t>-38.481262</t>
-  </si>
-  <si>
-    <t>-3.816781</t>
-  </si>
-  <si>
-    <t>-38.551234</t>
-  </si>
-  <si>
-    <t>-3.727890</t>
-  </si>
-  <si>
-    <t>-38.639012</t>
-  </si>
-  <si>
-    <t>-3.718389</t>
-  </si>
-  <si>
-    <t>-38.482273</t>
-  </si>
-  <si>
-    <t>-3.830000</t>
-  </si>
-  <si>
-    <t>-38.550000</t>
-  </si>
-  <si>
-    <t>-3.714701</t>
-  </si>
-  <si>
-    <t>-38.581138</t>
-  </si>
-  <si>
-    <t>-3.837602</t>
-  </si>
-  <si>
-    <t>-38.460851</t>
-  </si>
-  <si>
-    <t>-3.812563</t>
-  </si>
-  <si>
-    <t>-38.537415</t>
-  </si>
-  <si>
-    <t>-3.732028</t>
-  </si>
-  <si>
-    <t>-38.462216</t>
-  </si>
-  <si>
-    <t>-3.892758</t>
-  </si>
-  <si>
-    <t>-38.455388</t>
-  </si>
-  <si>
-    <t>-3.873219</t>
-  </si>
-  <si>
-    <t>-38.635111</t>
+    <t>COORDENADA(DEC)</t>
+  </si>
+  <si>
+    <t>-3.891234,-38.455678</t>
+  </si>
+  <si>
+    <t>-3.789012,-38.512345</t>
+  </si>
+  <si>
+    <t>-3.715678,-38.567890</t>
+  </si>
+  <si>
+    <t>-3.812345,-38.543210</t>
+  </si>
+  <si>
+    <t>-3.732456,-38.489123</t>
+  </si>
+  <si>
+    <t>-3.824532,-38.579120</t>
+  </si>
+  <si>
+    <t>-3.793874,-38.481262</t>
+  </si>
+  <si>
+    <t>-3.816781,-38.551234</t>
+  </si>
+  <si>
+    <t>-3.727890,-38.639012</t>
+  </si>
+  <si>
+    <t>-3.718389,-38.482273</t>
+  </si>
+  <si>
+    <t>-3.830000,-38.550000</t>
+  </si>
+  <si>
+    <t>-3.714701,-38.581138</t>
+  </si>
+  <si>
+    <t>-3.837602,-38.460851</t>
+  </si>
+  <si>
+    <t>-3.812563,-38.537415</t>
+  </si>
+  <si>
+    <t>-3.732028,-38.462216</t>
+  </si>
+  <si>
+    <t>-3.892758,-38.455388</t>
+  </si>
+  <si>
+    <t>-3.873219,-38.635111</t>
   </si>
 </sst>
 </file>
@@ -398,7 +341,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -440,7 +383,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -780,9 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -790,19 +735,17 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -842,14 +785,8 @@
       <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -862,6 +799,9 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
@@ -883,14 +823,8 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -903,6 +837,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -924,14 +861,8 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -944,6 +875,9 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -965,14 +899,8 @@
       <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -985,6 +913,9 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -1006,14 +937,8 @@
       <c r="M5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1026,6 +951,9 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
@@ -1047,14 +975,8 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1067,6 +989,9 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
@@ -1088,14 +1013,8 @@
       <c r="M7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1108,6 +1027,9 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -1129,14 +1051,8 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1149,6 +1065,9 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -1170,14 +1089,8 @@
       <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="N9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1190,6 +1103,9 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
@@ -1211,14 +1127,8 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1231,6 +1141,9 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -1252,14 +1165,8 @@
       <c r="M11" t="s">
         <v>22</v>
       </c>
-      <c r="N11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1272,6 +1179,9 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -1293,14 +1203,8 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1313,6 +1217,9 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
@@ -1334,14 +1241,8 @@
       <c r="M13" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1354,6 +1255,9 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
@@ -1375,14 +1279,8 @@
       <c r="M14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1395,6 +1293,9 @@
       <c r="D15" t="s">
         <v>73</v>
       </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
       <c r="F15" t="s">
         <v>58</v>
       </c>
@@ -1419,14 +1320,8 @@
       <c r="M15" t="s">
         <v>21</v>
       </c>
-      <c r="N15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1439,6 +1334,9 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
       <c r="F16" t="s">
         <v>58</v>
       </c>
@@ -1463,14 +1361,8 @@
       <c r="M16" t="s">
         <v>21</v>
       </c>
-      <c r="N16" t="s">
-        <v>103</v>
-      </c>
-      <c r="O16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1483,6 +1375,9 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -1507,14 +1402,8 @@
       <c r="M17" t="s">
         <v>21</v>
       </c>
-      <c r="N17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1527,6 +1416,9 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
       <c r="F18" t="s">
         <v>58</v>
       </c>
@@ -1551,14 +1443,8 @@
       <c r="M18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1571,6 +1457,9 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
       <c r="F19" t="s">
         <v>58</v>
       </c>
@@ -1595,14 +1484,8 @@
       <c r="M19" t="s">
         <v>21</v>
       </c>
-      <c r="N19" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1615,6 +1498,9 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
       <c r="F20" t="s">
         <v>58</v>
       </c>
@@ -1639,14 +1525,8 @@
       <c r="M20" t="s">
         <v>22</v>
       </c>
-      <c r="N20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1659,6 +1539,9 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
       <c r="F21" t="s">
         <v>66</v>
       </c>
@@ -1683,14 +1566,8 @@
       <c r="M21" t="s">
         <v>22</v>
       </c>
-      <c r="N21" t="s">
-        <v>113</v>
-      </c>
-      <c r="O21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1703,6 +1580,9 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
       <c r="F22" t="s">
         <v>66</v>
       </c>
@@ -1727,14 +1607,8 @@
       <c r="M22" t="s">
         <v>22</v>
       </c>
-      <c r="N22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1747,6 +1621,9 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
       <c r="F23" t="s">
         <v>66</v>
       </c>
@@ -1771,15 +1648,9 @@
       <c r="M23" t="s">
         <v>22</v>
       </c>
-      <c r="N23" t="s">
-        <v>99</v>
-      </c>
-      <c r="O23" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
+  <autoFilter ref="A1:M23" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{EF844DC4-561F-4AFE-8EC2-9BD4E2817F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FA89BC2-E01F-4916-A777-43B0D56DA60E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -281,58 +281,115 @@
     <t>Rua Coronel José Aurélio Câmara, 1341</t>
   </si>
   <si>
-    <t>COORDENADA(DEC)</t>
-  </si>
-  <si>
-    <t>-3.891234,-38.455678</t>
-  </si>
-  <si>
-    <t>-3.789012,-38.512345</t>
-  </si>
-  <si>
-    <t>-3.715678,-38.567890</t>
-  </si>
-  <si>
-    <t>-3.812345,-38.543210</t>
-  </si>
-  <si>
-    <t>-3.732456,-38.489123</t>
-  </si>
-  <si>
-    <t>-3.824532,-38.579120</t>
-  </si>
-  <si>
-    <t>-3.793874,-38.481262</t>
-  </si>
-  <si>
-    <t>-3.816781,-38.551234</t>
-  </si>
-  <si>
-    <t>-3.727890,-38.639012</t>
-  </si>
-  <si>
-    <t>-3.718389,-38.482273</t>
-  </si>
-  <si>
-    <t>-3.830000,-38.550000</t>
-  </si>
-  <si>
-    <t>-3.714701,-38.581138</t>
-  </si>
-  <si>
-    <t>-3.837602,-38.460851</t>
-  </si>
-  <si>
-    <t>-3.812563,-38.537415</t>
-  </si>
-  <si>
-    <t>-3.732028,-38.462216</t>
-  </si>
-  <si>
-    <t>-3.892758,-38.455388</t>
-  </si>
-  <si>
-    <t>-3.873219,-38.635111</t>
+    <t>VER NO MAPA</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>-3.891234</t>
+  </si>
+  <si>
+    <t>-38.455678</t>
+  </si>
+  <si>
+    <t>-3.789012</t>
+  </si>
+  <si>
+    <t>-38.512345</t>
+  </si>
+  <si>
+    <t>-3.715678</t>
+  </si>
+  <si>
+    <t>-38.567890</t>
+  </si>
+  <si>
+    <t>-3.812345</t>
+  </si>
+  <si>
+    <t>-38.543210</t>
+  </si>
+  <si>
+    <t>-3.732456</t>
+  </si>
+  <si>
+    <t>-38.489123</t>
+  </si>
+  <si>
+    <t>-3.824532</t>
+  </si>
+  <si>
+    <t>-38.579120</t>
+  </si>
+  <si>
+    <t>-3.793874</t>
+  </si>
+  <si>
+    <t>-38.481262</t>
+  </si>
+  <si>
+    <t>-3.816781</t>
+  </si>
+  <si>
+    <t>-38.551234</t>
+  </si>
+  <si>
+    <t>-3.727890</t>
+  </si>
+  <si>
+    <t>-38.639012</t>
+  </si>
+  <si>
+    <t>-3.718389</t>
+  </si>
+  <si>
+    <t>-38.482273</t>
+  </si>
+  <si>
+    <t>-3.830000</t>
+  </si>
+  <si>
+    <t>-38.550000</t>
+  </si>
+  <si>
+    <t>-3.714701</t>
+  </si>
+  <si>
+    <t>-38.581138</t>
+  </si>
+  <si>
+    <t>-3.837602</t>
+  </si>
+  <si>
+    <t>-38.460851</t>
+  </si>
+  <si>
+    <t>-3.812563</t>
+  </si>
+  <si>
+    <t>-38.537415</t>
+  </si>
+  <si>
+    <t>-3.732028</t>
+  </si>
+  <si>
+    <t>-38.462216</t>
+  </si>
+  <si>
+    <t>-3.892758</t>
+  </si>
+  <si>
+    <t>-38.455388</t>
+  </si>
+  <si>
+    <t>-3.873219</t>
+  </si>
+  <si>
+    <t>-38.635111</t>
   </si>
 </sst>
 </file>
@@ -341,7 +398,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -383,7 +440,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -723,11 +780,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,17 +790,19 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -785,8 +842,14 @@
       <c r="M1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -799,9 +862,6 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
@@ -823,8 +883,14 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -837,9 +903,6 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -861,8 +924,14 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -875,9 +944,6 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -899,8 +965,14 @@
       <c r="M4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -913,9 +985,6 @@
       <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -937,8 +1006,14 @@
       <c r="M5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -951,9 +1026,6 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
@@ -975,8 +1047,14 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -989,9 +1067,6 @@
       <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
@@ -1013,8 +1088,14 @@
       <c r="M7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1027,9 +1108,6 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1129,14 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1065,9 +1149,6 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -1089,8 +1170,14 @@
       <c r="M9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1103,9 +1190,6 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
@@ -1127,8 +1211,14 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1141,9 +1231,6 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -1165,8 +1252,14 @@
       <c r="M11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1179,9 +1272,6 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -1203,8 +1293,14 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1217,9 +1313,6 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1334,14 @@
       <c r="M13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1255,9 +1354,6 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1375,14 @@
       <c r="M14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1293,9 +1395,6 @@
       <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
       <c r="F15" t="s">
         <v>58</v>
       </c>
@@ -1320,8 +1419,14 @@
       <c r="M15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1334,9 +1439,6 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
       <c r="F16" t="s">
         <v>58</v>
       </c>
@@ -1361,8 +1463,14 @@
       <c r="M16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1375,9 +1483,6 @@
       <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
@@ -1402,8 +1507,14 @@
       <c r="M17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1527,6 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
       <c r="F18" t="s">
         <v>58</v>
       </c>
@@ -1443,8 +1551,14 @@
       <c r="M18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1457,9 +1571,6 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
       <c r="F19" t="s">
         <v>58</v>
       </c>
@@ -1484,8 +1595,14 @@
       <c r="M19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1498,9 +1615,6 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
       <c r="F20" t="s">
         <v>58</v>
       </c>
@@ -1525,8 +1639,14 @@
       <c r="M20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1539,9 +1659,6 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>96</v>
-      </c>
       <c r="F21" t="s">
         <v>66</v>
       </c>
@@ -1566,8 +1683,14 @@
       <c r="M21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1580,9 +1703,6 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
       <c r="F22" t="s">
         <v>66</v>
       </c>
@@ -1607,8 +1727,14 @@
       <c r="M22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1621,9 +1747,6 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
       <c r="F23" t="s">
         <v>66</v>
       </c>
@@ -1648,9 +1771,15 @@
       <c r="M23" t="s">
         <v>22</v>
       </c>
+      <c r="N23" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M23" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
+  <autoFilter ref="A1:O1" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO-SITEV5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9A0C9E-0554-4CC5-9DB0-6EF9A1346D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>RECANTO DOS SABIÁS</t>
   </si>
   <si>
-    <t>VAGA</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>-38.635111</t>
+  </si>
+  <si>
+    <t>GARAGEM</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -816,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -828,39 +826,39 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
       <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
         <v>81</v>
-      </c>
-      <c r="O1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -872,36 +870,36 @@
         <v>271249</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
         <v>5606.32</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
         <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -913,36 +911,36 @@
         <v>255000</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
         <v>6682.15</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
         <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -954,36 +952,36 @@
         <v>331990</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1">
         <v>7048.75</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" t="s">
         <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -995,36 +993,36 @@
         <v>234990</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1">
         <v>6157.79</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" t="s">
         <v>89</v>
-      </c>
-      <c r="O5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1036,36 +1034,36 @@
         <v>225102</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1">
         <v>5898.68</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
         <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1077,36 +1075,36 @@
         <v>352990</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1">
         <v>8123.13</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1118,36 +1116,36 @@
         <v>318990</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1">
         <v>6524.66</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
         <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1159,36 +1157,36 @@
         <v>678990</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1">
         <v>10927.01</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
         <v>91</v>
-      </c>
-      <c r="O9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1200,36 +1198,36 @@
         <v>256990</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1">
         <v>5371.66</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
         <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1241,36 +1239,36 @@
         <v>329990</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1">
         <v>6681.88</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
         <v>93</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1282,36 +1280,36 @@
         <v>243890</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1">
         <v>5473.02</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
         <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1323,36 +1321,36 @@
         <v>326990</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
         <v>6681.88</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
         <v>97</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1364,39 +1362,39 @@
         <v>270990</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1">
         <v>5686.11</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
         <v>99</v>
-      </c>
-      <c r="O14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>225000</v>
@@ -1405,7 +1403,7 @@
         <v>255000</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2">
         <v>46296</v>
@@ -1414,33 +1412,33 @@
         <v>2500</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
         <v>101</v>
-      </c>
-      <c r="O15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1">
         <v>202100</v>
@@ -1449,7 +1447,7 @@
         <v>219300</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2">
         <v>46478</v>
@@ -1458,33 +1456,33 @@
         <v>1800</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
         <v>103</v>
-      </c>
-      <c r="O16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1">
         <v>224000</v>
@@ -1493,7 +1491,7 @@
         <v>255000</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2">
         <v>46388</v>
@@ -1502,33 +1500,33 @@
         <v>2400</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
         <v>105</v>
-      </c>
-      <c r="O17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1">
         <v>200000</v>
@@ -1537,7 +1535,7 @@
         <v>215000</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
         <v>46419</v>
@@ -1546,33 +1544,33 @@
         <v>1900</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" t="s">
         <v>107</v>
-      </c>
-      <c r="O18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1">
         <v>220000</v>
@@ -1581,7 +1579,7 @@
         <v>221000</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2">
         <v>46419</v>
@@ -1590,33 +1588,33 @@
         <v>2300</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
         <v>109</v>
-      </c>
-      <c r="O19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
       <c r="G20" s="1">
         <v>239000</v>
@@ -1625,7 +1623,7 @@
         <v>286858</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="2">
         <v>46266</v>
@@ -1634,33 +1632,33 @@
         <v>2950</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s">
         <v>111</v>
-      </c>
-      <c r="O20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
       </c>
       <c r="G21" s="1">
         <v>238800</v>
@@ -1669,7 +1667,7 @@
         <v>241900</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2">
         <v>46327</v>
@@ -1678,33 +1676,33 @@
         <v>6257.63</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" t="s">
         <v>113</v>
-      </c>
-      <c r="O21" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1">
         <v>211200</v>
@@ -1713,7 +1711,7 @@
         <v>219200</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="2">
         <v>46357</v>
@@ -1722,33 +1720,33 @@
         <v>5534.39</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" t="s">
         <v>115</v>
-      </c>
-      <c r="O22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1">
         <v>213200</v>
@@ -1757,7 +1755,7 @@
         <v>221200</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="2">
         <v>46478</v>
@@ -1766,16 +1764,16 @@
         <v>5586.8</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
         <v>99</v>
-      </c>
-      <c r="O23" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO-SITEV5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B9A0C9E-0554-4CC5-9DB0-6EF9A1346D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -101,6 +101,9 @@
     <t>RECANTO DOS SABIÁS</t>
   </si>
   <si>
+    <t>VAGA</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
   </si>
   <si>
     <t>-38.635111</t>
-  </si>
-  <si>
-    <t>GARAGEM</t>
   </si>
 </sst>
 </file>
@@ -457,6 +457,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,9 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -814,7 +816,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -826,39 +828,39 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -870,36 +872,36 @@
         <v>271249</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1">
         <v>5606.32</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -911,36 +913,36 @@
         <v>255000</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
         <v>6682.15</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -952,36 +954,36 @@
         <v>331990</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1">
         <v>7048.75</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -993,36 +995,36 @@
         <v>234990</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1">
         <v>6157.79</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -1034,36 +1036,36 @@
         <v>225102</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1">
         <v>5898.68</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1075,36 +1077,36 @@
         <v>352990</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1">
         <v>8123.13</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1116,36 +1118,36 @@
         <v>318990</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1">
         <v>6524.66</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1157,36 +1159,36 @@
         <v>678990</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1">
         <v>10927.01</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1198,36 +1200,36 @@
         <v>256990</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1">
         <v>5371.66</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1239,36 +1241,36 @@
         <v>329990</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1">
         <v>6681.88</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1280,36 +1282,36 @@
         <v>243890</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1">
         <v>5473.02</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1321,36 +1323,36 @@
         <v>326990</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1">
         <v>6681.88</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1362,39 +1364,39 @@
         <v>270990</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1">
         <v>5686.11</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1">
         <v>225000</v>
@@ -1403,7 +1405,7 @@
         <v>255000</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2">
         <v>46296</v>
@@ -1412,33 +1414,33 @@
         <v>2500</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1">
         <v>202100</v>
@@ -1447,7 +1449,7 @@
         <v>219300</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2">
         <v>46478</v>
@@ -1456,33 +1458,33 @@
         <v>1800</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1">
         <v>224000</v>
@@ -1491,7 +1493,7 @@
         <v>255000</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2">
         <v>46388</v>
@@ -1500,33 +1502,33 @@
         <v>2400</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1">
         <v>200000</v>
@@ -1535,7 +1537,7 @@
         <v>215000</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2">
         <v>46419</v>
@@ -1544,33 +1546,33 @@
         <v>1900</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1">
         <v>220000</v>
@@ -1579,7 +1581,7 @@
         <v>221000</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2">
         <v>46419</v>
@@ -1588,33 +1590,33 @@
         <v>2300</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1">
         <v>239000</v>
@@ -1623,7 +1625,7 @@
         <v>286858</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="2">
         <v>46266</v>
@@ -1632,33 +1634,33 @@
         <v>2950</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1">
         <v>238800</v>
@@ -1667,7 +1669,7 @@
         <v>241900</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="2">
         <v>46327</v>
@@ -1676,33 +1678,33 @@
         <v>6257.63</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
         <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
       </c>
       <c r="G22" s="1">
         <v>211200</v>
@@ -1711,7 +1713,7 @@
         <v>219200</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2">
         <v>46357</v>
@@ -1720,33 +1722,33 @@
         <v>5534.39</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="1">
         <v>213200</v>
@@ -1755,7 +1757,7 @@
         <v>221200</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" s="2">
         <v>46478</v>
@@ -1764,16 +1766,16 @@
         <v>5586.8</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO-SITEV6/Versao Testada OK/pesquisa_habitnet_mm_yyyy_sanitizado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7373274-A536-4A30-8CF7-89AB8345A77A}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -398,7 +398,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -440,7 +440,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -457,10 +457,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,7 +778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO-SITEV6/Versao Testada OK/pesquisa_habitnet_mm_yyyy_sanitizado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7373274-A536-4A30-8CF7-89AB8345A77A}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
@@ -398,7 +398,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-416]mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -440,7 +440,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -457,6 +457,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,9 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO_SITE/habitnet-pesquisa-empreendimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO-SITEV6/Versao Testada OK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E938748-BFD3-4468-8CBD-18D68F7843F9}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00E0068-BE62-465F-8667-0C1FACA0A68C}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$O$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="122">
   <si>
     <t>EMPREENDIMENTO</t>
   </si>
@@ -390,6 +390,21 @@
   </si>
   <si>
     <t>-38.635111</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL FAROL DO ATLÂNTICO</t>
+  </si>
+  <si>
+    <t>Rua Zuca Accioly, 830</t>
+  </si>
+  <si>
+    <t>-3.747079</t>
+  </si>
+  <si>
+    <t>-38.465732</t>
+  </si>
+  <si>
+    <t>Entregue</t>
   </si>
 </sst>
 </file>
@@ -437,10 +452,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -457,10 +479,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,29 +798,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -830,7 +851,7 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -849,33 +870,36 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
-        <v>213945</v>
+        <v>213200</v>
       </c>
       <c r="H2" s="1">
-        <v>271249</v>
+        <v>221200</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J2" s="5">
+        <v>46478</v>
       </c>
       <c r="K2" s="1">
-        <v>5606.32</v>
+        <v>5586.8</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
@@ -884,39 +908,42 @@
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1">
-        <v>255000</v>
+        <v>216990</v>
       </c>
       <c r="H3" s="1">
-        <v>255000</v>
+        <v>270990</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="5">
+        <v>46844</v>
+      </c>
       <c r="K3" s="1">
-        <v>6682.15</v>
+        <v>5686.11</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
@@ -925,80 +952,86 @@
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1">
-        <v>268990</v>
+        <v>238800</v>
       </c>
       <c r="H4" s="1">
-        <v>331990</v>
+        <v>241900</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="5">
+        <v>46327</v>
       </c>
       <c r="K4" s="1">
-        <v>7048.75</v>
+        <v>6257.63</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>234990</v>
+        <v>213945</v>
       </c>
       <c r="H5" s="1">
-        <v>234990</v>
+        <v>271249</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J5" s="5">
+        <v>46447</v>
       </c>
       <c r="K5" s="1">
-        <v>6157.79</v>
+        <v>5606.32</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -1007,39 +1040,42 @@
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>225102</v>
+        <v>254990</v>
       </c>
       <c r="H6" s="1">
-        <v>225102</v>
+        <v>329990</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
+      <c r="J6" s="5">
+        <v>46569</v>
+      </c>
       <c r="K6" s="1">
-        <v>5898.68</v>
+        <v>6681.88</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -1048,39 +1084,42 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1">
-        <v>309990</v>
+        <v>268990</v>
       </c>
       <c r="H7" s="1">
-        <v>352990</v>
+        <v>331990</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
+      <c r="J7" s="5">
+        <v>46235</v>
+      </c>
       <c r="K7" s="1">
-        <v>8123.13</v>
+        <v>7048.75</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1089,188 +1128,202 @@
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1">
-        <v>248990</v>
+        <v>224000</v>
       </c>
       <c r="H8" s="1">
-        <v>318990</v>
+        <v>255000</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
+      <c r="J8" s="5">
+        <v>46388</v>
+      </c>
       <c r="K8" s="1">
-        <v>6524.66</v>
+        <v>2400</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1">
-        <v>416990</v>
+        <v>255000</v>
       </c>
       <c r="H9" s="1">
-        <v>678990</v>
+        <v>255000</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="K9" s="1">
-        <v>10927.01</v>
+        <v>6682.15</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>204990</v>
+        <v>309990</v>
       </c>
       <c r="H10" s="1">
-        <v>256990</v>
+        <v>352990</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
+      <c r="J10" s="5">
+        <v>46447</v>
+      </c>
       <c r="K10" s="1">
-        <v>5371.66</v>
+        <v>8123.13</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>254990</v>
+        <v>416990</v>
       </c>
       <c r="H11" s="1">
-        <v>329990</v>
+        <v>678990</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
+      <c r="J11" s="5">
+        <v>46508</v>
+      </c>
       <c r="K11" s="1">
-        <v>6681.88</v>
+        <v>10927.01</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1279,13 +1332,16 @@
         <v>208858</v>
       </c>
       <c r="H12" s="1">
-        <v>243890</v>
+        <v>428990</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
+      <c r="J12" s="5">
+        <v>46905</v>
+      </c>
       <c r="K12" s="1">
-        <v>5473.02</v>
+        <v>8000</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
@@ -1293,40 +1349,43 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1">
-        <v>254990</v>
+        <v>208858</v>
       </c>
       <c r="H13" s="1">
-        <v>326990</v>
+        <v>243890</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
+      <c r="J13" s="5">
+        <v>46631</v>
+      </c>
       <c r="K13" s="1">
-        <v>6681.88</v>
+        <v>5473.02</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1335,39 +1394,42 @@
         <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1">
-        <v>216990</v>
+        <v>225102</v>
       </c>
       <c r="H14" s="1">
-        <v>270990</v>
+        <v>225102</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
       </c>
+      <c r="J14" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="K14" s="1">
-        <v>5686.11</v>
+        <v>5898.68</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
@@ -1376,57 +1438,57 @@
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
-        <v>225000</v>
+        <v>204990</v>
       </c>
       <c r="H15" s="1">
-        <v>255000</v>
+        <v>256990</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="2">
-        <v>46296</v>
+        <v>21</v>
+      </c>
+      <c r="J15" s="5">
+        <v>46874</v>
       </c>
       <c r="K15" s="1">
-        <v>2500</v>
+        <v>5371.66</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1451,7 +1513,7 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>46478</v>
       </c>
       <c r="K16" s="1">
@@ -1475,31 +1537,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="1">
-        <v>224000</v>
+        <v>200000</v>
       </c>
       <c r="H17" s="1">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="2">
-        <v>46388</v>
+      <c r="J17" s="5">
+        <v>46419</v>
       </c>
       <c r="K17" s="1">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="L17" t="s">
         <v>21</v>
@@ -1508,10 +1570,10 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1519,43 +1581,43 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
-        <v>200000</v>
+        <v>234990</v>
       </c>
       <c r="H18" s="1">
-        <v>215000</v>
+        <v>234990</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2">
-        <v>46419</v>
+        <v>22</v>
+      </c>
+      <c r="J18" s="5">
+        <v>46113</v>
       </c>
       <c r="K18" s="1">
-        <v>1900</v>
+        <v>6157.79</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1563,43 +1625,43 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>220000</v>
+        <v>254990</v>
       </c>
       <c r="H19" s="1">
-        <v>221000</v>
+        <v>326990</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="2">
-        <v>46419</v>
+      <c r="J19" s="5">
+        <v>46539</v>
       </c>
       <c r="K19" s="1">
-        <v>2300</v>
+        <v>6681.88</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1607,31 +1669,31 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>239000</v>
+        <v>248990</v>
       </c>
       <c r="H20" s="1">
-        <v>286858</v>
+        <v>318990</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="2">
-        <v>46266</v>
+      <c r="J20" s="5">
+        <v>46631</v>
       </c>
       <c r="K20" s="1">
-        <v>2950</v>
+        <v>6524.66</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -1640,86 +1702,86 @@
         <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="O20" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1">
-        <v>238800</v>
+        <v>220000</v>
       </c>
       <c r="H21" s="1">
-        <v>241900</v>
+        <v>221000</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="2">
-        <v>46327</v>
+        <v>21</v>
+      </c>
+      <c r="J21" s="5">
+        <v>46419</v>
       </c>
       <c r="K21" s="1">
-        <v>6257.63</v>
+        <v>2300</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
-        <v>211200</v>
+        <v>239000</v>
       </c>
       <c r="H22" s="1">
-        <v>219200</v>
+        <v>286858</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="2">
-        <v>46357</v>
+        <v>21</v>
+      </c>
+      <c r="J22" s="5">
+        <v>46266</v>
       </c>
       <c r="K22" s="1">
-        <v>5534.39</v>
+        <v>2950</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -1728,58 +1790,109 @@
         <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="1">
+        <v>225000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>255000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="5">
+        <v>46296</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="1">
-        <v>213200</v>
-      </c>
-      <c r="H23" s="1">
-        <v>221200</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="2">
-        <v>46478</v>
-      </c>
-      <c r="K23" s="1">
-        <v>5586.8</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" t="s">
-        <v>99</v>
-      </c>
-      <c r="O23" t="s">
-        <v>100</v>
+      <c r="G24" s="1">
+        <v>211200</v>
+      </c>
+      <c r="H24" s="1">
+        <v>219200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="5">
+        <v>46357</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5534.39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}"/>
+  <autoFilter ref="A1:O24" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O24">
+      <sortCondition ref="A2:A24"/>
+      <sortCondition ref="B2:B24"/>
+      <sortCondition ref="F2:F24"/>
+      <sortCondition ref="C2:C24"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/MEGATAB_EMPREEND_JUN2025vlight.xlsx
+++ b/MEGATAB_EMPREEND_JUN2025vlight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d722662837d0812d/Documentos/HABITNET/FENIX/CONSULTA EMPREENDIMENTOS/FENIX-NOVO-SITEV6/Versao Testada OK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Ferreira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{A0875777-74D4-46C7-9320-236CB9F137F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC1800F-9C08-4602-B6AB-18B76C241433}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA039F2-2E44-47BF-9F40-73AF80AE82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
+    <workbookView xWindow="-120" yWindow="240" windowWidth="20730" windowHeight="11400" xr2:uid="{08B1738F-65CD-4C86-94D1-879E74383B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -599,12 +599,6 @@
     <t>-38.455677999999999</t>
   </si>
   <si>
-    <t>-3.824532000000000</t>
-  </si>
-  <si>
-    <t>-38.579120000000003</t>
-  </si>
-  <si>
     <t>-3.715678000000000</t>
   </si>
   <si>
@@ -783,6 +777,12 @@
   </si>
   <si>
     <t>-38.605570143242332</t>
+  </si>
+  <si>
+    <t>-3.737523</t>
+  </si>
+  <si>
+    <t>-38.594826</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,6 +839,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -855,10 +856,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ED102-EA5F-4289-8108-39A8A7803A45}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,6 +1199,9 @@
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1271,10 +1271,10 @@
         <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P2" t="s">
         <v>137</v>
@@ -1490,11 +1490,11 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="N7" t="s">
-        <v>186</v>
-      </c>
-      <c r="O7" t="s">
-        <v>187</v>
+      <c r="N7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="P7" t="s">
         <v>112</v>
@@ -1535,10 +1535,10 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P8" t="s">
         <v>113</v>
@@ -1579,10 +1579,10 @@
         <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P9" t="s">
         <v>121</v>
@@ -1605,10 +1605,10 @@
         <v>99</v>
       </c>
       <c r="N10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P10" t="s">
         <v>134</v>
@@ -1631,10 +1631,10 @@
         <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P11" t="s">
         <v>142</v>
@@ -1675,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P12" t="s">
         <v>114</v>
@@ -1719,10 +1719,10 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P13" t="s">
         <v>115</v>
@@ -1763,10 +1763,10 @@
         <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P14" t="s">
         <v>116</v>
@@ -1807,10 +1807,10 @@
         <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P15" t="s">
         <v>117</v>
@@ -1833,10 +1833,10 @@
         <v>99</v>
       </c>
       <c r="N16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P16" t="s">
         <v>131</v>
@@ -1859,10 +1859,10 @@
         <v>101</v>
       </c>
       <c r="N17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P17" t="s">
         <v>139</v>
@@ -1885,10 +1885,10 @@
         <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P18" t="s">
         <v>140</v>
@@ -1929,10 +1929,10 @@
         <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s">
         <v>118</v>
@@ -1973,10 +1973,10 @@
         <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s">
         <v>122</v>
@@ -2017,10 +2017,10 @@
         <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P21" t="s">
         <v>123</v>
@@ -2061,10 +2061,10 @@
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s">
         <v>127</v>
@@ -2087,10 +2087,10 @@
         <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s">
         <v>128</v>
@@ -2113,10 +2113,10 @@
         <v>103</v>
       </c>
       <c r="N24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s">
         <v>143</v>
@@ -2139,10 +2139,10 @@
         <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P25" t="s">
         <v>129</v>
@@ -2165,10 +2165,10 @@
         <v>99</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P26" t="s">
         <v>130</v>
@@ -2191,10 +2191,10 @@
         <v>101</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s">
         <v>141</v>
@@ -2235,10 +2235,10 @@
         <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P28" t="s">
         <v>119</v>
@@ -2261,10 +2261,10 @@
         <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P29" t="s">
         <v>138</v>
@@ -2287,10 +2287,10 @@
         <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P30" t="s">
         <v>132</v>
@@ -2375,10 +2375,10 @@
         <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P32" t="s">
         <v>120</v>
@@ -2419,10 +2419,10 @@
         <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P33" t="s">
         <v>124</v>
@@ -2445,10 +2445,10 @@
         <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P34" t="s">
         <v>133</v>
@@ -2489,10 +2489,10 @@
         <v>16</v>
       </c>
       <c r="N35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P35" t="s">
         <v>125</v>
@@ -2533,10 +2533,10 @@
         <v>16</v>
       </c>
       <c r="N36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P36" t="s">
         <v>126</v>
@@ -2559,10 +2559,10 @@
         <v>99</v>
       </c>
       <c r="N37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P37" t="s">
         <v>135</v>
@@ -2629,10 +2629,10 @@
         <v>99</v>
       </c>
       <c r="N39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P39" t="s">
         <v>136</v>
@@ -2655,10 +2655,10 @@
         <v>104</v>
       </c>
       <c r="N40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P40" t="s">
         <v>144</v>
